--- a/src/test/resources/TestData/AutomationTestData.xlsx
+++ b/src/test/resources/TestData/AutomationTestData.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/venmeen/eclipse-workspace/CucumberNew/src/test/resources/TestData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahaj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FEB874-F1CF-4741-A5ED-367425950900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pythonCode" sheetId="1" r:id="rId1"/>
+    <sheet name="codeInvalid" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,12 +26,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>pythonCode_valid</t>
-  </si>
-  <si>
-    <t>pythonCode_invalid</t>
   </si>
   <si>
     <t>colors=["red","blue","yellow"] 
@@ -41,11 +40,17 @@
   <si>
     <t>Test</t>
   </si>
+  <si>
+    <t>inValid_pythonCode</t>
+  </si>
+  <si>
+    <t>color = red blue yellow print colors</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -109,6 +114,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -376,34 +384,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850C79A7-E93E-4EE6-AEFD-379F6260D8B5}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="80" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/AutomationTestData.xlsx
+++ b/src/test/resources/TestData/AutomationTestData.xlsx
@@ -1,22 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahaj\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FEB874-F1CF-4741-A5ED-367425950900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{49514277-D6A2-4069-80BB-863904FC1D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="23304" windowHeight="13224" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pythonCode" sheetId="1" r:id="rId1"/>
-    <sheet name="codeInvalid" sheetId="2" r:id="rId2"/>
+    <sheet name="Register" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1:O6"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,9 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>pythonCode_valid</t>
+  </si>
+  <si>
+    <t>pythonCode_invalid</t>
   </si>
   <si>
     <t>colors=["red","blue","yellow"] 
@@ -41,10 +40,19 @@
     <t>Test</t>
   </si>
   <si>
-    <t>inValid_pythonCode</t>
-  </si>
-  <si>
-    <t>color = red blue yellow print colors</t>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>confirm Password</t>
+  </si>
+  <si>
+    <t>Numpy</t>
+  </si>
+  <si>
+    <t>Ninjas123</t>
   </si>
 </sst>
 </file>
@@ -76,12 +84,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -98,11 +112,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -385,38 +400,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="23.5" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -424,32 +435,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850C79A7-E93E-4EE6-AEFD-379F6260D8B5}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230D4A7A-511C-4D1F-8327-70DB07870DC5}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="Sorry@23" xr:uid="{FA1DDA96-6CE2-4373-B10D-901CFBA12490}"/>
+    <hyperlink ref="C2" r:id="rId2" display="Sorry@23" xr:uid="{4C24483E-4688-4F19-B7BB-31D76DFDD443}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/AutomationTestData.xlsx
+++ b/src/test/resources/TestData/AutomationTestData.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr showInkAnnotation="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{49514277-D6A2-4069-80BB-863904FC1D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1E777AEE-627B-4AF0-9FBB-E5B444868DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="23304" windowHeight="13224" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="23280" windowHeight="13224" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pythonCode" sheetId="1" r:id="rId1"/>
-    <sheet name="Register" sheetId="2" r:id="rId2"/>
+    <sheet name="codeInvalid" sheetId="3" r:id="rId2"/>
+    <sheet name="Register" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <oleSize ref="A1:O6"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>pythonCode_valid</t>
   </si>
@@ -53,6 +54,12 @@
   </si>
   <si>
     <t>Ninjas123</t>
+  </si>
+  <si>
+    <t>inValid_pythonCode</t>
+  </si>
+  <si>
+    <t>color = red blue yellow print colors</t>
   </si>
 </sst>
 </file>
@@ -112,12 +119,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -403,16 +413,16 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -435,11 +445,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD131CD3-14A3-42E4-8AF2-A2D637018F36}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.8984375" customWidth="1"/>
+    <col min="2" max="2" width="10.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230D4A7A-511C-4D1F-8327-70DB07870DC5}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
